--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Otus\repos\otus-homework-multithreading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A9AB85-B6AC-4419-91BB-F9F38EC21AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE89605F-584D-4A1C-8D33-3F030F0CB6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{AD159AE3-4BAD-4749-97F5-214C5F8A0A1D}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>Average Time (ms)</t>
   </si>
   <si>
-    <t>PlainListSummarizer</t>
+    <t>PlainArraySummarizer</t>
   </si>
   <si>
-    <t>ParallelListSummarizer</t>
+    <t>ParallelArraySummarizer</t>
   </si>
   <si>
-    <t>ParallelLinqListSummarizer</t>
+    <t>ParallelLinqArraySummarizer</t>
   </si>
 </sst>
 </file>
@@ -143,7 +143,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time (ms) for 100 attempts of ListSummarizers on lists of different lengths</a:t>
+              <a:t> Time (ms) for 100 attempts of ArraySummarizers on arrays of different lengths</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -193,7 +193,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PlainListSummarizer</c:v>
+                  <c:v>PlainArraySummarizer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -224,10 +224,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$1:$H$1</c:f>
+              <c:f>Лист1!$C$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -245,33 +245,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$2:$H$2</c:f>
+              <c:f>Лист1!$C$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.977E-3</c:v>
+                  <c:v>6.4099999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1370000000000001E-3</c:v>
+                  <c:v>8.2600000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4274999999999999E-2</c:v>
+                  <c:v>7.8059999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63350600000000001</c:v>
+                  <c:v>8.6665999999999896E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2639449999999997</c:v>
+                  <c:v>1.0857889999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.958346999999897</c:v>
+                  <c:v>10.302607</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.488610999999906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1074.70576199999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -292,7 +304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ParallelListSummarizer</c:v>
+                  <c:v>ParallelArraySummarizer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -323,10 +335,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$1:$H$1</c:f>
+              <c:f>Лист1!$C$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -344,33 +356,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$3:$H$3</c:f>
+              <c:f>Лист1!$C$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.29524600000000001</c:v>
+                  <c:v>0.29936599999999902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0845E-2</c:v>
+                  <c:v>7.0342999999999906E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.154915</c:v>
+                  <c:v>0.148260999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36801499999999998</c:v>
+                  <c:v>0.28487600000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.06173899999999</c:v>
+                  <c:v>2.9658500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5820959999999999</c:v>
+                  <c:v>8.5254630000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.492759999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>562.16180999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,7 +415,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ParallelLinqListSummarizer</c:v>
+                  <c:v>ParallelLinqArraySummarizer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -422,10 +446,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$1:$H$1</c:f>
+              <c:f>Лист1!$C$1:$J$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -443,33 +467,45 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$H$4</c:f>
+              <c:f>Лист1!$C$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.283244</c:v>
+                  <c:v>0.26425300000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8982999999999998E-2</c:v>
+                  <c:v>7.4014999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15865000000000001</c:v>
+                  <c:v>0.13648399999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49723099999999998</c:v>
+                  <c:v>0.42226799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9280149999999998</c:v>
+                  <c:v>2.8707180000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0016530000000001</c:v>
+                  <c:v>11.621883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.088301000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>658.09302400000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -496,7 +532,7 @@
         <c:axId val="1610086688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10000000"/>
+          <c:max val="1000000000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -560,6 +596,552 @@
         <c:axId val="1601663072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1610086688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time (ms) for 100 attempts of ArraySummarizers on arrays of different lengths</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PlainArraySummarizer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.4099999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8059999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2409-4811-A63B-F80B5A3522AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParallelArraySummarizer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.29936599999999902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0342999999999906E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.148260999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2409-4811-A63B-F80B5A3522AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ParallelLinqArraySummarizer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$1:$E$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26425300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4014999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13648399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2409-4811-A63B-F80B5A3522AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1610086688"/>
+        <c:axId val="1601663072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1610086688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601663072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1601663072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -742,7 +1324,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1291,6 +2429,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>623886</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B2B6FC-FDB0-4C34-B9BE-FA1152E22597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1596,20 +2772,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048493CC-43C8-492B-AC01-BAE8D975FCBE}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z45" sqref="Z45"/>
+      <selection activeCell="AA35" sqref="AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" customWidth="1"/>
+    <col min="10" max="10" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1631,8 +2810,14 @@
       <c r="H1">
         <v>10000000</v>
       </c>
+      <c r="I1">
+        <v>100000000</v>
+      </c>
+      <c r="J1">
+        <v>1000000000</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1640,25 +2825,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.977E-3</v>
+        <v>6.4099999999999997E-4</v>
       </c>
       <c r="D2">
-        <v>6.1370000000000001E-3</v>
+        <v>8.2600000000000002E-4</v>
       </c>
       <c r="E2">
-        <v>6.4274999999999999E-2</v>
+        <v>7.8059999999999996E-3</v>
       </c>
       <c r="F2">
-        <v>0.63350600000000001</v>
+        <v>8.6665999999999896E-2</v>
       </c>
       <c r="G2">
-        <v>6.2639449999999997</v>
+        <v>1.0857889999999999</v>
       </c>
       <c r="H2">
-        <v>62.958346999999897</v>
+        <v>10.302607</v>
+      </c>
+      <c r="I2">
+        <v>97.488610999999906</v>
+      </c>
+      <c r="J2">
+        <v>1074.70576199999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1666,25 +2857,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.29524600000000001</v>
+        <v>0.29936599999999902</v>
       </c>
       <c r="D3">
-        <v>8.0845E-2</v>
+        <v>7.0342999999999906E-2</v>
       </c>
       <c r="E3">
-        <v>0.154915</v>
+        <v>0.148260999999999</v>
       </c>
       <c r="F3">
-        <v>0.36801499999999998</v>
+        <v>0.28487600000000002</v>
       </c>
       <c r="G3">
-        <v>2.06173899999999</v>
+        <v>2.9658500000000001</v>
       </c>
       <c r="H3">
-        <v>8.5820959999999999</v>
+        <v>8.5254630000000002</v>
+      </c>
+      <c r="I3">
+        <v>61.492759999999997</v>
+      </c>
+      <c r="J3">
+        <v>562.16180999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1692,22 +2889,28 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.283244</v>
+        <v>0.26425300000000002</v>
       </c>
       <c r="D4">
-        <v>7.8982999999999998E-2</v>
+        <v>7.4014999999999997E-2</v>
       </c>
       <c r="E4">
-        <v>0.15865000000000001</v>
+        <v>0.13648399999999999</v>
       </c>
       <c r="F4">
-        <v>0.49723099999999998</v>
+        <v>0.42226799999999998</v>
       </c>
       <c r="G4">
-        <v>3.9280149999999998</v>
+        <v>2.8707180000000001</v>
       </c>
       <c r="H4">
-        <v>7.0016530000000001</v>
+        <v>11.621883</v>
+      </c>
+      <c r="I4">
+        <v>79.088301000000001</v>
+      </c>
+      <c r="J4">
+        <v>658.09302400000001</v>
       </c>
     </row>
   </sheetData>
